--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9CEDE0-775E-4743-82A5-F0562AE31320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C881E380-7B62-48C2-8687-F68BF7315857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>sx</t>
   </si>
@@ -293,10 +293,64 @@
     <t>total blue points</t>
   </si>
   <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>starting x</t>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>double zig</t>
+  </si>
+  <si>
+    <t>quadratic bezier</t>
+  </si>
+  <si>
+    <t>cubic bezier</t>
+  </si>
+  <si>
+    <t>zigr</t>
+  </si>
+  <si>
+    <t>zigl</t>
+  </si>
+  <si>
+    <t>wave_info (sx,ex,bez_arr)</t>
+  </si>
+  <si>
+    <t>array with each entry being a fruit array</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>during each wave, one fruit array will launch</t>
+  </si>
+  <si>
+    <t>move the level up</t>
+  </si>
+  <si>
+    <t>recalculate waves array</t>
+  </si>
+  <si>
+    <t>start new wave</t>
+  </si>
+  <si>
+    <t>once the fruit array is empty, move on to next fruit array</t>
+  </si>
+  <si>
+    <t>once we reach the end of the waves array (no more fruit arrays)</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -794,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +961,9 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
       <c r="M13">
         <v>216</v>
       </c>
@@ -923,27 +980,137 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C881E380-7B62-48C2-8687-F68BF7315857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B05882-A293-43D9-B8D7-C4DD10CAF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Teleports" sheetId="1" r:id="rId1"/>
     <sheet name="Animations" sheetId="2" r:id="rId2"/>
     <sheet name="Map Colors" sheetId="3" r:id="rId3"/>
-    <sheet name="Boss" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,26 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>sx</t>
   </si>
   <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>nx</t>
-  </si>
-  <si>
-    <t>ny</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>mus</t>
-  </si>
-  <si>
     <t>times 8</t>
   </si>
   <si>
@@ -86,216 +73,12 @@
     <t>overworld song</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>answer_a</t>
-  </si>
-  <si>
-    <t>answer_b</t>
-  </si>
-  <si>
-    <t>reply_a</t>
-  </si>
-  <si>
-    <t>reply_b</t>
-  </si>
-  <si>
-    <t>what is the best way to enter a room?</t>
-  </si>
-  <si>
-    <t>what is a ghost's favorite food?</t>
-  </si>
-  <si>
-    <t>riddle time: what month of the year has 28 days?</t>
-  </si>
-  <si>
-    <t>alright, what is 6/2(1+2)?</t>
-  </si>
-  <si>
-    <t>i weigh 90 pounds plus half my weight. how much do i weigh?</t>
-  </si>
-  <si>
-    <t>knock</t>
-  </si>
-  <si>
-    <t>spook-hetti</t>
-  </si>
-  <si>
-    <t>nine!</t>
-  </si>
-  <si>
-    <t>90 pounds</t>
-  </si>
-  <si>
-    <t>kick the door open.</t>
-  </si>
-  <si>
-    <t>nothing. They're dead.</t>
-  </si>
-  <si>
-    <t>all of them</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>180 pounds</t>
-  </si>
-  <si>
-    <t>that one was too easy</t>
-  </si>
-  <si>
-    <t>ahh, a man of culture. Let's continue.</t>
-  </si>
-  <si>
-    <t>uh, you are sort of correct. but not really. not even close.</t>
-  </si>
-  <si>
-    <t>january. sometimes.</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>see. i knew it. jerk.</t>
-  </si>
-  <si>
-    <t>wow, way to be that guy.</t>
-  </si>
-  <si>
-    <t>aha! yes. stealth answer.</t>
-  </si>
-  <si>
-    <t>got you! math is amazing.</t>
-  </si>
-  <si>
-    <t>(if i weighed anything you would be correct)</t>
-  </si>
-  <si>
-    <t>math is boring anyway…</t>
-  </si>
-  <si>
-    <t>funny, no.</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>{"you aren't good at this are you?"},</t>
-  </si>
-  <si>
-    <t>{"thank you for playing my game.", "here is a token of my friendship.","be kind. rewind."},</t>
-  </si>
-  <si>
-    <t>Hog</t>
-  </si>
-  <si>
-    <t>why do you disturb me?</t>
-  </si>
-  <si>
-    <t>your brother tried to black mail me before dying... defame me to the town.</t>
-  </si>
-  <si>
-    <t>i asked him why he was doing this. he started waving his sword around.</t>
-  </si>
-  <si>
-    <t>he started destroying my research and then he... well, you know.</t>
-  </si>
-  <si>
-    <t>why have you come to my domain?</t>
-  </si>
-  <si>
-    <t>you will pay swine!</t>
-  </si>
-  <si>
-    <t>he would never.</t>
-  </si>
-  <si>
-    <t>please continue.</t>
-  </si>
-  <si>
-    <t>why care about the books?</t>
-  </si>
-  <si>
-    <t>i need your pendant.</t>
-  </si>
-  <si>
-    <t>what does your research entail?</t>
-  </si>
-  <si>
-    <t>i've been getting that vibe...</t>
-  </si>
-  <si>
-    <t>you deserved it.</t>
-  </si>
-  <si>
-    <t>i think you murdered him.</t>
-  </si>
-  <si>
-    <t>i needed to find the murderer.</t>
-  </si>
-  <si>
-    <t>someone else died trying to kill me. tripped on my spiky throw rug and...</t>
-  </si>
-  <si>
-    <t>why would i lie about it? he is dead regardless.</t>
-  </si>
-  <si>
-    <t>you seem different then him.</t>
-  </si>
-  <si>
-    <t>they contain all my written notes on the subject of the gate.</t>
-  </si>
-  <si>
-    <t>it's yours, i finished my research on it earlier.</t>
-  </si>
-  <si>
-    <t>i'm testing this pendant to see if it reacts with a part of the door.</t>
-  </si>
-  <si>
-    <t>he said he would leave me alone if i paid tribute to him.</t>
-  </si>
-  <si>
-    <t>maybe so, but i can't help how i was born, same as you.</t>
-  </si>
-  <si>
-    <t>maybe i did. i do feel guilty about my home setup. it is not safe for tiny humans.</t>
-  </si>
-  <si>
-    <t>well, you are welcome to destroy my doormat.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>outro={"this pendant is only part of a set. by itself it is totally useless.", "take it.","i hope you can find a way to stop this evil."," i am going to continue searching for other ways to conquer evil."},</t>
-  </si>
-  <si>
-    <t>fail={"i thought you were more discerning than that. go away."},</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>waves</t>
   </si>
   <si>
     <t>total blue points</t>
   </si>
   <si>
-    <t>levels</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -350,7 +133,37 @@
     <t>once we reach the end of the waves array (no more fruit arrays)</t>
   </si>
   <si>
-    <t>number</t>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>number of spheres</t>
+  </si>
+  <si>
+    <t>{64,-10,-40,32,64,140}</t>
+  </si>
+  <si>
+    <t>{64,168,32,64,140}</t>
   </si>
 </sst>
 </file>
@@ -480,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -492,28 +305,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,21 +641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="21" width="9.7109375" customWidth="1"/>
     <col min="22" max="22" width="10.42578125" customWidth="1"/>
     <col min="23" max="23" width="11.5703125" customWidth="1"/>
@@ -870,248 +664,593 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
+        <v>{0,8,64},</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11">
+        <v>120</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E4:E8" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
+        <v>{1,64,120},</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>64</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,8,64},</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11">
+        <v>120</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,64,120},</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,8,64},</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11">
+        <v>120</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,64,120},</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A9:C9),"}")</f>
+        <v>{0,8,64}</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
+        <v>{{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64}},</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" ref="E17:E19" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
+        <v>{2,64,64},</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>{3,0,10},</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11">
+        <v>48</v>
+      </c>
+      <c r="C19" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>{4,48,80},</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="12">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A20:D20),"},")</f>
+        <v>{5,64,64,{64,-10,-40,32,64,140}},</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" ref="E21:E23" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A21:D21),"},")</f>
+        <v>{5,64,64,{64,168,32,64,140}},</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="6"/>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="6"/>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E21),"},")</f>
+        <v>{{2,64,64},{3,0,10},{4,48,80},{5,64,64,{64,-10,-40,32,64,140}},{5,64,64,{64,168,32,64,140}},},</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f>_xlfn.CONCAT(A2&amp;"={",_xlfn.TEXTJOIN(",",TRUE,B2:AT2),"},")</f>
-        <v>sx={},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT(A3&amp;"={",_xlfn.TEXTJOIN(",",TRUE,B3:AT3),"},")</f>
-        <v>sy={},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT(A4&amp;"={",_xlfn.TEXTJOIN(",",TRUE,B4:AT4),"},")</f>
-        <v>nx={},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT(A5&amp;"={",_xlfn.TEXTJOIN(",",TRUE,B5:AT5),"},")</f>
-        <v>ny={},</v>
-      </c>
-      <c r="M10">
-        <v>872</v>
-      </c>
-      <c r="N10">
-        <f>872/8</f>
-        <v>109</v>
-      </c>
-      <c r="R10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT(A6&amp;"={",_xlfn.TEXTJOIN(",",TRUE,B6:AT6),"},")</f>
-        <v>mus={},</v>
-      </c>
-      <c r="M11">
-        <f>28*8</f>
-        <v>224</v>
-      </c>
-      <c r="N11">
-        <v>28</v>
-      </c>
-      <c r="R11">
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M12">
-        <v>1000</v>
-      </c>
-      <c r="N12">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13">
-        <v>216</v>
-      </c>
-      <c r="N13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M14">
-        <v>872</v>
-      </c>
-      <c r="N14">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
+      <c r="E29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="6" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="6" t="str">
+        <f t="shared" ref="E31:E35" si="3">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>{},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="6" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:C36),"}")</f>
+        <v>{}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E30:E36),"},")</f>
+        <v>{{},{},{},{},{},{},{}},</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,60 +1276,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1243,7 +1382,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -1296,7 +1435,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1383,7 +1522,7 @@
         <v>={}</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f>I9*8</f>
@@ -1645,494 +1784,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5129C53B-C785-4B80-BF2A-47D382EBA168}">
-  <dimension ref="B1:G37"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B2&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C2:M2),"""},"))</f>
-        <v>question={"what is the best way to enter a room?","what is a ghost's favorite food?","riddle time: what month of the year has 28 days?","alright, what is 6/2(1+2)?","i weigh 90 pounds plus half my weight. how much do i weigh?"},</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B3&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C3:M3),"""},"))</f>
-        <v>answer_a={"knock","spook-hetti","january. sometimes.","nine!","90 pounds"},</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B4&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C4:M4),"""},"))</f>
-        <v>answer_b={"kick the door open.","nothing. they're dead.","all of them","one","180 pounds"},</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B5&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C5:M5),"""},"))</f>
-        <v>reply_a={"that one was too easy","ahh, a man of culture. let's continue.","uh, you are sort of correct. but not really. not even close.","math is boring anyway…","funny, no."},</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B6&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C6:M6),"""},"))</f>
-        <v>reply_b={"see. i knew it. jerk.","wow, way to be that guy.","aha! yes. stealth answer.","got you! math is amazing.","(if i weighed anything you would be correct)"},</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="str">
-        <f>_xlfn.CONCAT(B7&amp;"={",_xlfn.TEXTJOIN(",",TRUE,C7:H7),"},")</f>
-        <v>Correct={1,1,2,1,2},</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="16">
-        <v>2</v>
-      </c>
-      <c r="D26" s="16">
-        <v>2</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B21&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C21:M21),"""},"))</f>
-        <v>question={"why do you disturb me?","your brother tried to black mail me before dying... defame me to the town.","i asked him why he was doing this. he started waving his sword around.","he started destroying my research and then he... well, you know.","why have you come to my domain?"},</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B22&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C22:M22),"""},"))</f>
-        <v>answer_a={"you will pay swine!","he would never.","please continue.","why care about the books?","i need your pendant."},</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B23&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C23:M23),"""},"))</f>
-        <v>answer_b={"what does your research entail?","i've been getting that vibe...","you deserved it.","i think you murdered him.","i needed to find the murderer."},</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B24&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C24:M24),"""},"))</f>
-        <v>reply_a={"someone else died trying to kill me. tripped on my spiky throw rug and...","why would i lie about it? he is dead regardless.","you seem different then him.","they contain all my written notes on the subject of the gate.","it's yours, i finished my research on it earlier."},</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="str">
-        <f>LOWER(_xlfn.CONCAT(B25&amp;"={""",_xlfn.TEXTJOIN(""",""",TRUE,C25:M25),"""},"))</f>
-        <v>reply_b={"i'm testing this pendant to see if it reacts with a part of the door.","he said he would leave me alone if i paid tribute to him.","maybe so, but i can't help how i was born, same as you.","maybe i did. i do feel guilty about my home setup. it is not safe for tiny humans.","well, you are welcome to destroy my doormat."},</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="str">
-        <f>_xlfn.CONCAT(B26&amp;"={",_xlfn.TEXTJOIN(",",TRUE,C26:H26),"},")</f>
-        <v>Correct={2,2,1,1,1},</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B05882-A293-43D9-B8D7-C4DD10CAF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D27D0-B570-43F1-87E2-22CD8B77D281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>{64,-10,-40,32,64,140}</t>
   </si>
   <si>
-    <t>{64,168,32,64,140}</t>
+    <t>{64,-10,168,32,64,140}</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1061,8 +1061,8 @@
         <v>41</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f t="shared" ref="E21:E23" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A21:D21),"},")</f>
-        <v>{5,64,64,{64,168,32,64,140}},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A21:D21),"}")</f>
+        <v>{5,64,64,{64,-10,168,32,64,140}}</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
@@ -1113,7 +1113,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E21),"},")</f>
-        <v>{{2,64,64},{3,0,10},{4,48,80},{5,64,64,{64,-10,-40,32,64,140}},{5,64,64,{64,168,32,64,140}},},</v>
+        <v>{{2,64,64},{3,0,10},{4,48,80},{5,64,64,{64,-10,-40,32,64,140}},{5,64,64,{64,-10,168,32,64,140}}},</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1181,7 +1181,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="6" t="str">
-        <f t="shared" ref="E31:E35" si="3">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
+        <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
         <v>{},</v>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D27D0-B570-43F1-87E2-22CD8B77D281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B531D-44B4-460F-AF5F-AC7A20CE54B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>sx</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>{64,-10,168,32,64,140}</t>
+  </si>
+  <si>
+    <t>every 10 b_points gives mult</t>
+  </si>
+  <si>
+    <t>fruitlet</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,6 +993,9 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1043,6 +1055,12 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="J20" t="s">
         <v>25</v>
       </c>
@@ -1066,6 +1084,9 @@
       </c>
       <c r="F21" t="s">
         <v>36</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -1079,6 +1100,12 @@
       <c r="E22" s="6"/>
       <c r="F22" t="s">
         <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
       </c>
       <c r="J22" t="s">
         <v>30</v>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B531D-44B4-460F-AF5F-AC7A20CE54B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F153C4-E172-4490-B22B-D70F1E357D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -314,8 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +651,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +683,13 @@
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -711,13 +709,12 @@
       <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
         <v>64</v>
       </c>
-      <c r="D3" s="11"/>
       <c r="E3" s="6" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
         <v>{0,8,64},</v>
@@ -736,13 +733,12 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>64</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
         <v>120</v>
       </c>
-      <c r="D4" s="11"/>
       <c r="E4" s="6" t="str">
         <f t="shared" ref="E4:E8" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
         <v>{1,64,120},</v>
@@ -761,13 +757,12 @@
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5">
         <v>64</v>
       </c>
-      <c r="D5" s="11"/>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>{0,8,64},</v>
@@ -789,13 +784,12 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>64</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
         <v>120</v>
       </c>
-      <c r="D6" s="11"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>{1,64,120},</v>
@@ -817,13 +811,12 @@
       <c r="A7" s="5">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="D7" s="11"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>{0,8,64},</v>
@@ -842,13 +835,12 @@
       <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>64</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>120</v>
       </c>
-      <c r="D8" s="11"/>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>{1,64,120},</v>
@@ -867,13 +859,12 @@
       <c r="A9" s="5">
         <v>0</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
         <v>64</v>
       </c>
-      <c r="D9" s="11"/>
       <c r="E9" s="6" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A9:C9),"}")</f>
         <v>{0,8,64}</v>
@@ -890,9 +881,6 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -900,9 +888,6 @@
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
         <v>{{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64}},</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
       <c r="E11" s="6"/>
       <c r="F11" t="s">
         <v>36</v>
@@ -959,13 +944,13 @@
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -979,13 +964,12 @@
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17">
         <v>64</v>
       </c>
-      <c r="D17" s="11"/>
       <c r="E17" s="6" t="str">
         <f t="shared" ref="E17:E19" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
         <v>{2,64,64},</v>
@@ -1001,13 +985,12 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="D18" s="11"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>{3,0,10},</v>
@@ -1020,13 +1003,12 @@
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>48</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19">
         <v>80</v>
       </c>
-      <c r="D19" s="11"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>{4,48,80},</v>
@@ -1039,13 +1021,13 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>64</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>64</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -1069,13 +1051,13 @@
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>64</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>64</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="6" t="str">
@@ -1094,9 +1076,6 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
       <c r="E22" s="6"/>
       <c r="F22" t="s">
         <v>36</v>
@@ -1113,9 +1092,6 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="6"/>
       <c r="F23" t="s">
         <v>36</v>
@@ -1126,9 +1102,6 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
       <c r="E24" s="6"/>
       <c r="F24" t="s">
         <v>36</v>
@@ -1179,13 +1152,13 @@
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -1194,9 +1167,6 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
       <c r="E30" s="6" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
         <v>{},</v>
@@ -1204,9 +1174,6 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
       <c r="E31" s="6" t="str">
         <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
         <v>{},</v>
@@ -1214,9 +1181,6 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
@@ -1224,9 +1188,6 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
@@ -1234,9 +1195,6 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
@@ -1244,9 +1202,6 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
       <c r="E35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
@@ -1254,9 +1209,6 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
       <c r="E36" s="6" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:C36),"}")</f>
         <v>{}</v>
@@ -1264,9 +1216,6 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F153C4-E172-4490-B22B-D70F1E357D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144A88F-B1BE-4CE0-A644-3E8AA9BECDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144A88F-B1BE-4CE0-A644-3E8AA9BECDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23A61D-49E5-4CE3-99F4-C7862BB94F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teleports" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -298,11 +298,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -314,6 +351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +692,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +700,7 @@
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -677,7 +718,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -692,7 +733,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -715,7 +756,7 @@
       <c r="C3">
         <v>64</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
         <v>{0,8,64},</v>
       </c>
@@ -739,7 +780,7 @@
       <c r="C4">
         <v>120</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="12" t="str">
         <f t="shared" ref="E4:E8" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
         <v>{1,64,120},</v>
       </c>
@@ -763,7 +804,7 @@
       <c r="C5">
         <v>64</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>{0,8,64},</v>
       </c>
@@ -790,7 +831,7 @@
       <c r="C6">
         <v>120</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>{1,64,120},</v>
       </c>
@@ -817,7 +858,7 @@
       <c r="C7">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>{0,8,64},</v>
       </c>
@@ -841,7 +882,7 @@
       <c r="C8">
         <v>120</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>{1,64,120},</v>
       </c>
@@ -865,7 +906,7 @@
       <c r="C9">
         <v>64</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A9:C9),"}")</f>
         <v>{0,8,64}</v>
       </c>
@@ -881,14 +922,14 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
         <v>{{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64}},</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="13"/>
       <c r="F11" t="s">
         <v>36</v>
       </c>
@@ -904,7 +945,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="14"/>
       <c r="F12" t="s">
         <v>36</v>
       </c>
@@ -935,7 +976,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="11"/>
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -953,7 +994,7 @@
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
@@ -970,7 +1011,7 @@
       <c r="C17">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="12" t="str">
         <f t="shared" ref="E17:E19" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
         <v>{2,64,64},</v>
       </c>
@@ -991,7 +1032,7 @@
       <c r="C18">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="str">
+      <c r="E18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>{3,0,10},</v>
       </c>
@@ -1009,7 +1050,7 @@
       <c r="C19">
         <v>80</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>{4,48,80},</v>
       </c>
@@ -1030,7 +1071,7 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A20:D20),"},")</f>
         <v>{5,64,64,{64,-10,-40,32,64,140}},</v>
       </c>
@@ -1060,7 +1101,7 @@
       <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A21:D21),"}")</f>
         <v>{5,64,64,{64,-10,168,32,64,140}}</v>
       </c>
@@ -1076,7 +1117,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="13"/>
       <c r="F22" t="s">
         <v>36</v>
       </c>
@@ -1092,7 +1133,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="13"/>
       <c r="F23" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1143,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="13"/>
       <c r="F24" t="s">
         <v>36</v>
       </c>
@@ -1118,7 +1159,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="14"/>
       <c r="F25" t="s">
         <v>36</v>
       </c>
@@ -1143,7 +1184,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="11"/>
       <c r="F28" t="s">
         <v>36</v>
       </c>
@@ -1161,62 +1202,62 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="E30" s="6" t="str">
+      <c r="E30" s="13" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
         <v>{},</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="E31" s="6" t="str">
+      <c r="E31" s="13" t="str">
         <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
         <v>{},</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="E33" s="6" t="str">
+      <c r="E33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="E34" s="6" t="str">
+      <c r="E34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="E35" s="6" t="str">
+      <c r="E35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="E36" s="6" t="str">
+      <c r="E36" s="13" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:C36),"}")</f>
         <v>{}</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
@@ -1226,7 +1267,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23A61D-49E5-4CE3-99F4-C7862BB94F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB09AB4-28EE-47D7-9F1E-F4E5C373DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
+    <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teleports" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>sx</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>staggered r</t>
+  </si>
+  <si>
+    <t>staggered l</t>
+  </si>
+  <si>
+    <t>zig staggered r</t>
   </si>
 </sst>
 </file>
@@ -692,7 +701,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,17 +757,17 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
       <c r="C3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
-        <v>{0,8,64},</v>
+        <v>{8,0,0},</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -772,17 +781,17 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12" t="str">
         <f t="shared" ref="E4:E8" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
-        <v>{1,64,120},</v>
+        <v>{7,0,0},</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -873,19 +882,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>120</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{1,64,120},</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="E8" s="12"/>
       <c r="G8">
         <v>5</v>
       </c>
@@ -897,19 +895,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A9:C9),"}")</f>
-        <v>{0,8,64}</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="E9" s="12"/>
       <c r="G9">
         <v>6</v>
       </c>
@@ -923,21 +910,33 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="E10" s="13"/>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
-        <v>{{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64},{1,64,120},{0,8,64}},</v>
+        <v>{{8,0,0},{7,0,0},{0,8,64},{1,64,120},{0,8,64},},</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -949,24 +948,33 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
+      <c r="G14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -980,6 +988,9 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1000,6 +1011,9 @@
       <c r="F16" t="s">
         <v>36</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1018,9 +1032,6 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1057,6 +1068,9 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1078,15 +1092,6 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1107,12 +1112,6 @@
       </c>
       <c r="F21" t="s">
         <v>36</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1122,13 +1121,13 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1137,8 +1136,11 @@
       <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="K23" t="s">
-        <v>26</v>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1147,8 +1149,14 @@
       <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="K24" t="s">
-        <v>27</v>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1164,17 +1172,23 @@
         <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>36</v>
       </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB09AB4-28EE-47D7-9F1E-F4E5C373DC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F952E2-695A-40D1-9487-6EBBEC0A7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F952E2-695A-40D1-9487-6EBBEC0A7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017606E-F4D8-4ADD-B0AA-21D0266F2885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017606E-F4D8-4ADD-B0AA-21D0266F2885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E89C5E-4AE9-4413-97F8-4C1F4FC3F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -361,7 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -700,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,17 +756,17 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E3" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
-        <v>{8,0,0},</v>
+        <v>{9,80,80},</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -784,14 +783,14 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f t="shared" ref="E4:E8" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
-        <v>{7,0,0},</v>
+        <f t="shared" ref="E4:E7" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
+        <v>{7,80,80},</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -882,7 +881,15 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="G8">
         <v>5</v>
@@ -895,7 +902,15 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="G9">
         <v>6</v>
@@ -909,7 +924,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="G10">
         <v>7</v>
       </c>
@@ -923,9 +938,9 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
-        <v>{{8,0,0},{7,0,0},{0,8,64},{1,64,120},{0,8,64},},</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},},</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" t="s">
         <v>36</v>
       </c>
@@ -944,7 +959,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" t="s">
         <v>36</v>
       </c>
@@ -1116,7 +1131,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" t="s">
         <v>36</v>
       </c>
@@ -1132,7 +1147,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1160,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" t="s">
         <v>36</v>
       </c>
@@ -1167,7 +1182,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" t="s">
         <v>36</v>
       </c>
@@ -1216,62 +1231,62 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="E30" s="13" t="str">
+      <c r="E30" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
         <v>{},</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="12" t="str">
         <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
         <v>{},</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="12" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="12" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="12" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="12" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:C36),"}")</f>
         <v>{}</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
@@ -1281,7 +1296,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E89C5E-4AE9-4413-97F8-4C1F4FC3F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22117FE1-8187-4C9B-8761-5840A708EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -700,7 +700,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22117FE1-8187-4C9B-8761-5840A708EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F0D0FC-AE4B-4177-B241-F869F63AA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>sx</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>flowers b4</t>
-  </si>
-  <si>
-    <t>overworld song</t>
   </si>
   <si>
     <t>waves</t>
@@ -697,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,42 +716,42 @@
     <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -772,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -789,20 +786,20 @@
         <v>80</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f t="shared" ref="E4:E7" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
+        <f t="shared" ref="E4:E9" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
         <v>{7,80,80},</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -820,16 +817,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -847,16 +841,13 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -874,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>9</v>
       </c>
@@ -890,18 +881,21 @@
       <c r="C8">
         <v>80</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>{9,80,80},</v>
+      </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -911,123 +905,126 @@
       <c r="C9">
         <v>80</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>{7,80,80},</v>
+      </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="E10" s="12"/>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
-        <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},},</v>
+        <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},{9,80,80},{7,80,80},},</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="13"/>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="11"/>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,11 +1038,11 @@
         <v>64</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" ref="E17:E19" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
+        <f t="shared" ref="E17:E23" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
         <v>{2,64,64},</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1063,176 +1060,198 @@
         <v>{3,0,10},</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>{4,48,80},</v>
+        <v>{2,64,64},</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A20:D20),"},")</f>
-        <v>{5,64,64,{64,-10,-40,32,64,140}},</v>
+        <f t="shared" si="1"/>
+        <v>{3,0,10},</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="E21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>{4,48,80},</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
         <v>64</v>
       </c>
-      <c r="C21">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A21:D21),"}")</f>
-        <v>{5,64,64,{64,-10,168,32,64,140}}</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="E22" s="12"/>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>{5,32,64,{64,-10,-40,32,64,140}},</v>
+      </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
+      </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E21),"},")</f>
-        <v>{{2,64,64},{3,0,10},{4,48,80},{5,64,64,{64,-10,-40,32,64,140}},{5,64,64,{64,-10,168,32,64,140}}},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E24),"},")</f>
+        <v>{{2,64,64},{3,0,10},{2,64,64},{3,0,10},{4,48,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},},</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="13"/>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="11"/>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F0D0FC-AE4B-4177-B241-F869F63AA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A90F24-B106-4F7A-A767-535DC1C042DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>sx</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>zig staggered r</t>
+  </si>
+  <si>
+    <t>spline</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,7 @@
     <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -725,7 +728,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -751,7 +754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -775,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -799,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -823,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -847,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>9</v>
       </c>
@@ -895,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -919,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="E10" s="12"/>
       <c r="G10">
@@ -932,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
         <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},{9,80,80},{7,80,80},},</v>
@@ -951,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -970,26 +973,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1000,11 +1003,8 @@
       <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1022,9 +1022,6 @@
       </c>
       <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,6 +1059,12 @@
       <c r="F18" t="s">
         <v>35</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1081,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1101,6 +1104,9 @@
       <c r="F20" t="s">
         <v>35</v>
       </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -1119,6 +1125,9 @@
       <c r="F21" t="s">
         <v>35</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1140,15 +1149,6 @@
       <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1169,12 +1169,6 @@
       </c>
       <c r="F23" t="s">
         <v>35</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1184,13 +1178,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="J24" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,24 +1193,24 @@
       <c r="F25" t="s">
         <v>35</v>
       </c>
-      <c r="K25" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" t="s">
-        <v>27</v>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,6 +1224,12 @@
       <c r="F28" t="s">
         <v>35</v>
       </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1252,6 +1246,15 @@
       </c>
       <c r="E29" s="12" t="s">
         <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1260,6 +1263,9 @@
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
         <v>{},</v>
       </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1267,12 +1273,18 @@
         <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
         <v>{},</v>
       </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="E32" s="12" t="str">
         <f t="shared" si="2"/>
         <v>{},</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A90F24-B106-4F7A-A767-535DC1C042DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F13942-CFD4-4D97-B62B-5A1831FC43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="750" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teleports" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>sx</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>spline</t>
+  </si>
+  <si>
+    <t>default sx</t>
+  </si>
+  <si>
+    <t>default ex</t>
   </si>
 </sst>
 </file>
@@ -700,7 +706,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +725,7 @@
     <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -728,7 +734,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -753,8 +759,14 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -778,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -802,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -825,8 +837,14 @@
       <c r="I5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -850,7 +868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -874,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>9</v>
       </c>
@@ -898,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -922,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="E10" s="12"/>
       <c r="G10">
@@ -935,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
         <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},{9,80,80},{7,80,80},},</v>
@@ -954,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -973,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>35</v>
       </c>
@@ -987,12 +1005,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1029,14 +1047,14 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="12" t="str">
         <f t="shared" ref="E17:E23" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
-        <v>{2,64,64},</v>
+        <v>{2,0,60},</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
@@ -1071,14 +1089,14 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>{2,64,64},</v>
+        <v>{2,0,60},</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
@@ -1184,7 +1202,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E24),"},")</f>
-        <v>{{2,64,64},{3,0,10},{2,64,64},{3,0,10},{4,48,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},},</v>
+        <v>{{2,0,60},{3,0,10},{2,0,60},{3,0,10},{4,48,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},},</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F13942-CFD4-4D97-B62B-5A1831FC43EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9C041-B97A-4C25-B956-8974ABCEFEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>sx</t>
   </si>
@@ -97,12 +97,6 @@
     <t>cubic bezier</t>
   </si>
   <si>
-    <t>zigr</t>
-  </si>
-  <si>
-    <t>zigl</t>
-  </si>
-  <si>
     <t>wave_info (sx,ex,bez_arr)</t>
   </si>
   <si>
@@ -188,6 +182,21 @@
   </si>
   <si>
     <t>default ex</t>
+  </si>
+  <si>
+    <t>zig l</t>
+  </si>
+  <si>
+    <t>zig r</t>
+  </si>
+  <si>
+    <t>curves</t>
+  </si>
+  <si>
+    <t>staggered</t>
+  </si>
+  <si>
+    <t>crossing</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,28 +736,30 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -757,76 +768,91 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E3" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:C3),"},")</f>
-        <v>{9,80,80},</v>
+        <f t="shared" ref="E3:E4" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A3:D3),"},")</f>
+        <v>{0,8,64},</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f t="shared" ref="E4:E9" si="0">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A4:C4),"},")</f>
-        <v>{7,80,80},</v>
+        <f t="shared" si="0"/>
+        <v>{1,64,120},</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
+      <c r="J4">
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>64</v>
       </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{0,8,64},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A5:D5),"},")</f>
+        <v>{5,32,64,{64,-10,-40,32,64,140}},</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -846,17 +872,20 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
         <v>64</v>
       </c>
-      <c r="C6">
-        <v>120</v>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{1,64,120},</v>
+        <f t="shared" ref="E6:E9" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A6:D6),"},")</f>
+        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -867,20 +896,26 @@
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{0,8,64},</v>
+        <f t="shared" si="1"/>
+        <v>{1,64,120},</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -891,20 +926,26 @@
       <c r="I7">
         <v>20</v>
       </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{9,80,80},</v>
+        <f t="shared" si="1"/>
+        <v>{0,8,64},</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -918,17 +959,17 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>{7,80,80},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A9:D9),"}")</f>
+        <v>{3,0,0}</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -947,29 +988,41 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>8</v>
       </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E9),"},")</f>
-        <v>{{9,80,80},{7,80,80},{0,8,64},{1,64,120},{0,8,64},{9,80,80},{7,80,80},},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E10),"},")</f>
+        <v>{{0,8,64},{1,64,120},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{1,64,120},{0,8,64},{3,0,0}},</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11">
         <v>8</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -979,67 +1032,72 @@
       <c r="D12" s="8"/>
       <c r="E12" s="13"/>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
+      <c r="J12">
+        <v>70</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="11"/>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
-        <v>35</v>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,11 +1111,11 @@
         <v>60</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" ref="E17:E23" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
+        <f t="shared" ref="E17:E23" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
         <v>{2,0,60},</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,59 +1126,59 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>{3,0,10},</v>
+        <f t="shared" si="2"/>
+        <v>{3,0,0},</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>{2,0,60},</v>
+        <f t="shared" si="2"/>
+        <v>{4,40,80},</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>{3,0,10},</v>
+        <f t="shared" si="2"/>
+        <v>{2,0,60},</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1131,20 +1189,20 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>80</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>{4,48,80},</v>
+        <f t="shared" si="2"/>
+        <v>{4,40,80},</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1158,14 +1216,14 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{5,32,64,{64,-10,-40,32,64,140}},</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1179,158 +1237,216 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A23:D23),"}")</f>
+        <v>{5,32,64,{64,-10,168,32,64,140}}</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E24),"},")</f>
-        <v>{{2,0,60},{3,0,10},{2,0,60},{3,0,10},{4,48,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},},</v>
+        <v>{{2,0,60},{3,0,0},{4,40,80},{2,0,60},{4,40,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}}},</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="13"/>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="11"/>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
       <c r="E30" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:C30),"},")</f>
-        <v>{},</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A30:D30),"},")</f>
+        <v>{8,80,80},</v>
       </c>
       <c r="K30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="E31" s="12" t="str">
+        <f t="shared" ref="E31:E36" si="3">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:D31),"},")</f>
+        <v>{7,80,80},</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="E32" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>{9,70,100},</v>
+      </c>
+      <c r="K32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="E31" s="12" t="str">
-        <f t="shared" ref="E31:E35" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:C31),"},")</f>
-        <v>{},</v>
-      </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="E32" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>{},</v>
-      </c>
-      <c r="K32" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>{},</v>
+        <f t="shared" si="3"/>
+        <v>{3,0,0},</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>{},</v>
+        <f t="shared" si="3"/>
+        <v>{9,70,100},</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
       <c r="E35" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>{},</v>
+        <f t="shared" si="3"/>
+        <v>{8,80,80},</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
       <c r="E36" s="12" t="str">
-        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:C36),"}")</f>
-        <v>{}</v>
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A36:D36),"}")</f>
+        <v>{7,80,80}</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,7 +1456,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E30:E36),"},")</f>
-        <v>{{},{},{},{},{},{},{}},</v>
+        <v>{{8,80,80},{7,80,80},{9,70,100},{3,0,0},{9,70,100},{8,80,80},{7,80,80}},</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9C041-B97A-4C25-B956-8974ABCEFEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC110C7-6DD0-480D-8EBC-842848DF1257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>sx</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>crossing</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>{64,-10,180,120,-60,120,64,-11}</t>
   </si>
 </sst>
 </file>
@@ -712,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,6 +989,12 @@
       <c r="I9">
         <v>10</v>
       </c>
+      <c r="J9">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1462,6 +1477,162 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A42:D42),"},")</f>
+        <v>{3,0,0},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f t="shared" ref="E43:E47" si="4">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A43:D43),"},")</f>
+        <v>{6,0,0,{64,-10,180,120,-60,120,64,-11}},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>{5,32,64,{64,-10,-40,32,64,140}},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="E46" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>{9,70,100},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>{8,80,80},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>80</v>
+      </c>
+      <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="E48" s="12" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A48:D48),"}")</f>
+        <v>{7,80,80}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="str">
+        <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E42:E48),"},")</f>
+        <v>{{3,0,0},{6,0,0,{64,-10,180,120,-60,120,64,-11}},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{9,70,100},{8,80,80},{7,80,80}},</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC110C7-6DD0-480D-8EBC-842848DF1257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37010263-27C6-4D68-A8EF-6A3508F8F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37010263-27C6-4D68-A8EF-6A3508F8F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70970307-516B-4AF8-805C-CCA459F25A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="855" windowWidth="19440" windowHeight="15000" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teleports" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f t="shared" ref="E6:E9" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A6:D6),"},")</f>
+        <f t="shared" ref="E6:E8" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A6:D6),"},")</f>
         <v>{5,32,64,{64,-10,168,32,64,140}},</v>
       </c>
       <c r="G6">
@@ -1126,7 +1126,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" ref="E17:E23" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
+        <f t="shared" ref="E17:E22" si="2">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A17:D17),"},")</f>
         <v>{2,0,60},</v>
       </c>
       <c r="F17" t="s">
@@ -1379,7 +1379,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" ref="E31:E36" si="3">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:D31),"},")</f>
+        <f t="shared" ref="E31:E35" si="3">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A31:D31),"},")</f>
         <v>{7,80,80},</v>
       </c>
       <c r="K31" t="s">

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70970307-516B-4AF8-805C-CCA459F25A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAF15F-D539-41AB-BC26-A5E2023392FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>sx</t>
   </si>
@@ -202,10 +202,16 @@
     <t>Level 4</t>
   </si>
   <si>
-    <t>mixed</t>
-  </si>
-  <si>
     <t>{64,-10,180,120,-60,120,64,-11}</t>
+  </si>
+  <si>
+    <t>{120,-10,0,120,0,-120,120,129}</t>
+  </si>
+  <si>
+    <t>{120,-10,-20,184,-20,-56,120,129}</t>
+  </si>
+  <si>
+    <t>{0,-10,120,184,120,-56,0,129}</t>
   </si>
 </sst>
 </file>
@@ -724,7 +730,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1489,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1508,17 +1514,20 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
       </c>
       <c r="E42" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A42:D42),"},")</f>
-        <v>{3,0,0},</v>
+        <v>{6,0,0,{120,-10,-20,184,-20,-56,120,129}},</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="12" t="str">
         <f t="shared" ref="E43:E47" si="4">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A43:D43),"},")</f>
@@ -1577,32 +1586,38 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
       </c>
       <c r="E46" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>{9,70,100},</v>
+        <v>{6,0,0,{120,-10,0,120,0,-120,120,129}},</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>{8,80,80},</v>
+        <v>{6,0,0,{0,-10,120,184,120,-56,0,129}},</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1627,7 +1642,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E42:E48),"},")</f>
-        <v>{{3,0,0},{6,0,0,{64,-10,180,120,-60,120,64,-11}},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{9,70,100},{8,80,80},{7,80,80}},</v>
+        <v>{{6,0,0,{120,-10,-20,184,-20,-56,120,129}},{6,0,0,{64,-10,180,120,-60,120,64,-11}},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{6,0,0,{120,-10,0,120,0,-120,120,129}},{6,0,0,{0,-10,120,184,120,-56,0,129}},{7,80,80}},</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDAF15F-D539-41AB-BC26-A5E2023392FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EDE86-7DDE-4B6E-9947-BB090AA6DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>{64,-10,-40,32,64,140}</t>
   </si>
   <si>
-    <t>{64,-10,168,32,64,140}</t>
-  </si>
-  <si>
     <t>every 10 b_points gives mult</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>{0,-10,120,184,120,-56,0,129}</t>
+  </si>
+  <si>
+    <t>{64,-10,150,32,64,140}</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -786,10 +786,10 @@
         <v>36</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
         <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -896,11 +896,11 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E6" s="12" t="str">
         <f t="shared" ref="E6:E8" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A6:D6),"},")</f>
-        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
+        <v>{5,32,64,{64,-10,150,32,64,140}},</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -1024,7 +1024,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E3:E10),"},")</f>
-        <v>{{0,8,64},{1,64,120},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{1,64,120},{0,8,64},{3,0,0}},</v>
+        <v>{{0,8,64},{1,64,120},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,150,32,64,140}},{1,64,120},{0,8,64},{3,0,0}},</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" t="s">
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1086,7 +1086,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,11 +1258,11 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A23:D23),"}")</f>
-        <v>{5,32,64,{64,-10,168,32,64,140}}</v>
+        <v>{5,32,64,{64,-10,150,32,64,140}}</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
@@ -1275,13 +1275,13 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E17:E24),"},")</f>
-        <v>{{2,0,60},{3,0,0},{4,40,80},{2,0,60},{4,40,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}}},</v>
+        <v>{{2,0,60},{3,0,0},{4,40,80},{2,0,60},{4,40,80},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,150,32,64,140}}},</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1301,7 +1301,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1347,7 +1347,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A42:D42),"},")</f>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="12" t="str">
         <f t="shared" ref="E43:E47" si="4">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A43:D43),"},")</f>
@@ -1577,11 +1577,11 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E45" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>{5,32,64,{64,-10,168,32,64,140}},</v>
+        <v>{5,32,64,{64,-10,150,32,64,140}},</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" s="12" t="str">
         <f t="shared" si="4"/>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" si="4"/>
@@ -1642,7 +1642,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN("",TRUE,E42:E48),"},")</f>
-        <v>{{6,0,0,{120,-10,-20,184,-20,-56,120,129}},{6,0,0,{64,-10,180,120,-60,120,64,-11}},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,168,32,64,140}},{6,0,0,{120,-10,0,120,0,-120,120,129}},{6,0,0,{0,-10,120,184,120,-56,0,129}},{7,80,80}},</v>
+        <v>{{6,0,0,{120,-10,-20,184,-20,-56,120,129}},{6,0,0,{64,-10,180,120,-60,120,64,-11}},{5,32,64,{64,-10,-40,32,64,140}},{5,32,64,{64,-10,150,32,64,140}},{6,0,0,{120,-10,0,120,0,-120,120,129}},{6,0,0,{0,-10,120,184,120,-56,0,129}},{7,80,80}},</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>

--- a/sheet drop.xlsx
+++ b/sheet drop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\AppData\Roaming\pico-8\carts\drop-p8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EDE86-7DDE-4B6E-9947-BB090AA6DC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD3C98-F164-49CA-BFDB-55B25C3D6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F517386-D81F-4AF1-A133-9D983E9345C9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>sx</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>zig staggered r</t>
-  </si>
-  <si>
-    <t>spline</t>
   </si>
   <si>
     <t>default sx</t>
@@ -729,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E7FE8-EAA6-4D7C-962A-12CADC7F5F87}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -786,10 +783,10 @@
         <v>36</v>
       </c>
       <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -840,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -896,7 +893,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="12" t="str">
         <f t="shared" ref="E6:E8" si="1">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A6:D6),"},")</f>
@@ -1086,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1114,12 +1111,6 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1258,7 +1249,7 @@
         <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A23:D23),"}")</f>
@@ -1315,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1486,7 +1477,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -1523,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="12" t="str">
         <f>_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A42:D42),"},")</f>
@@ -1541,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="12" t="str">
         <f t="shared" ref="E43:E47" si="4">_xlfn.CONCAT("{",_xlfn.TEXTJOIN(",",TRUE,A43:D43),"},")</f>
@@ -1577,7 +1568,7 @@
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="12" t="str">
         <f t="shared" si="4"/>
@@ -1595,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="12" t="str">
         <f t="shared" si="4"/>
@@ -1613,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" si="4"/>
